--- a/data/2025_SPR_SchoolPsychRev_Data.xlsx
+++ b/data/2025_SPR_SchoolPsychRev_Data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoregon.sharepoint.com/sites/O365_HEDCOInstitute/Shared Documents/07 Research/02_Papers/02_Synthesis_Methods/01_Core_Baseline_Set/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoregon-my.sharepoint.com/personal/strevino_uoregon_edu/Documents/Desktop/HEDCO Institute/GitHub R Projects/Depression_Prevention_Demographics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2468" documentId="8_{BA4E0558-0D34-4A6B-90F0-84E222171338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D47F6710-F239-4305-8E8C-C9D65B986254}"/>
+  <xr:revisionPtr revIDLastSave="2476" documentId="8_{BA4E0558-0D34-4A6B-90F0-84E222171338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E8ADA78-215D-424D-B3CE-93B1C082E6A0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="357">
   <si>
     <t>refid</t>
   </si>
@@ -1065,13 +1066,55 @@
   </si>
   <si>
     <t>Sex: Boys</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Refid</t>
+  </si>
+  <si>
+    <t>Identification number for the primary study</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>DistillerSR assigned</t>
+  </si>
+  <si>
+    <t>Broad demographic domain of the reported demographic (select-one per demographic measure)</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>Specific type of demographic reported (select-one per demographic measure)</t>
+  </si>
+  <si>
+    <t>Specific measure or unit used for reporting demographics</t>
+  </si>
+  <si>
+    <t>Text entry</t>
+  </si>
+  <si>
+    <t>Open text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1113,6 +1156,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1146,7 +1197,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1158,6 +1209,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1456,24 +1512,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590CB037-33D2-49A9-BCFB-92C1E50AB362}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="D5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="D12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="D14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="D17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="D19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="D25" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="D27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="D29" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="D30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="D31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>354</v>
+      </c>
+      <c r="C32" t="s">
+        <v>355</v>
+      </c>
+      <c r="D32" t="s">
+        <v>356</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L506"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C498" sqref="C498"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1797,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>31788</v>
       </c>
@@ -1503,7 +1812,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>31788</v>
       </c>
@@ -1518,7 +1827,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>31788</v>
       </c>
@@ -1533,7 +1842,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>31792</v>
       </c>
@@ -1548,7 +1857,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>31792</v>
       </c>
@@ -1563,7 +1872,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>31792</v>
       </c>
@@ -1578,7 +1887,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>31792</v>
       </c>
@@ -1593,7 +1902,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>31792</v>
       </c>
@@ -1608,7 +1917,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>31792</v>
       </c>
@@ -1623,7 +1932,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>31792</v>
       </c>
@@ -1638,7 +1947,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>31792</v>
       </c>
@@ -1653,7 +1962,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>31792</v>
       </c>
@@ -1668,7 +1977,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>31807</v>
       </c>
@@ -1683,7 +1992,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>31807</v>
       </c>
@@ -1698,7 +2007,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>31807</v>
       </c>
@@ -1713,7 +2022,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>31807</v>
       </c>
@@ -1728,7 +2037,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>31807</v>
       </c>
@@ -1743,7 +2052,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>31807</v>
       </c>
@@ -1758,7 +2067,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>31807</v>
       </c>
@@ -1773,7 +2082,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>31807</v>
       </c>
@@ -1788,7 +2097,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>31809</v>
       </c>
@@ -1803,7 +2112,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>31809</v>
       </c>
@@ -1818,7 +2127,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>31809</v>
       </c>
@@ -1833,7 +2142,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>31809</v>
       </c>
@@ -1848,7 +2157,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>31815</v>
       </c>
@@ -1863,7 +2172,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>31815</v>
       </c>
@@ -1878,7 +2187,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>31815</v>
       </c>
@@ -1893,7 +2202,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>31816</v>
       </c>
@@ -1908,7 +2217,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>31816</v>
       </c>
@@ -1923,7 +2232,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31816</v>
       </c>
@@ -1938,7 +2247,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31816</v>
       </c>
@@ -1953,7 +2262,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31816</v>
       </c>
@@ -1968,7 +2277,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>31816</v>
       </c>
@@ -1983,7 +2292,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>31816</v>
       </c>
@@ -1998,7 +2307,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>31816</v>
       </c>
@@ -2013,7 +2322,7 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>31816</v>
       </c>
@@ -2028,7 +2337,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>31816</v>
       </c>
@@ -2043,7 +2352,7 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>31816</v>
       </c>
@@ -2058,7 +2367,7 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>31816</v>
       </c>
@@ -2073,7 +2382,7 @@
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>31816</v>
       </c>
@@ -2088,7 +2397,7 @@
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>31816</v>
       </c>
@@ -2103,7 +2412,7 @@
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>31816</v>
       </c>
@@ -2118,7 +2427,7 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>31818</v>
       </c>
@@ -2133,7 +2442,7 @@
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>31818</v>
       </c>
@@ -2148,7 +2457,7 @@
       </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>31818</v>
       </c>
@@ -2163,7 +2472,7 @@
       </c>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>31818</v>
       </c>
@@ -2178,7 +2487,7 @@
       </c>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>31818</v>
       </c>
@@ -2193,7 +2502,7 @@
       </c>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>31818</v>
       </c>
@@ -2208,7 +2517,7 @@
       </c>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>31818</v>
       </c>
@@ -2223,7 +2532,7 @@
       </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>31818</v>
       </c>
@@ -2238,7 +2547,7 @@
       </c>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>31818</v>
       </c>
@@ -2253,7 +2562,7 @@
       </c>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>31818</v>
       </c>
@@ -2268,7 +2577,7 @@
       </c>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>31818</v>
       </c>
@@ -2283,7 +2592,7 @@
       </c>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>31818</v>
       </c>
@@ -2298,7 +2607,7 @@
       </c>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>31818</v>
       </c>
@@ -2313,7 +2622,7 @@
       </c>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>31818</v>
       </c>
@@ -2328,7 +2637,7 @@
       </c>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>31818</v>
       </c>
@@ -2343,7 +2652,7 @@
       </c>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>31818</v>
       </c>
@@ -2358,7 +2667,7 @@
       </c>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>31818</v>
       </c>
@@ -2373,7 +2682,7 @@
       </c>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>31818</v>
       </c>
@@ -2388,7 +2697,7 @@
       </c>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>31818</v>
       </c>
@@ -2403,7 +2712,7 @@
       </c>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>31818</v>
       </c>
@@ -2418,7 +2727,7 @@
       </c>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>31818</v>
       </c>
@@ -2433,7 +2742,7 @@
       </c>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>31835</v>
       </c>
@@ -2448,7 +2757,7 @@
       </c>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>31835</v>
       </c>
@@ -2463,7 +2772,7 @@
       </c>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>31835</v>
       </c>
@@ -2478,7 +2787,7 @@
       </c>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>31840</v>
       </c>
@@ -2493,7 +2802,7 @@
       </c>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>31840</v>
       </c>
@@ -2508,7 +2817,7 @@
       </c>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>31842</v>
       </c>
@@ -2523,7 +2832,7 @@
       </c>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>31842</v>
       </c>
@@ -2538,7 +2847,7 @@
       </c>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>31845</v>
       </c>
@@ -2553,7 +2862,7 @@
       </c>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>31845</v>
       </c>
@@ -2568,7 +2877,7 @@
       </c>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>31845</v>
       </c>
@@ -2583,7 +2892,7 @@
       </c>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>31845</v>
       </c>
@@ -2598,7 +2907,7 @@
       </c>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>31847</v>
       </c>
@@ -2613,7 +2922,7 @@
       </c>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>31847</v>
       </c>
@@ -2628,7 +2937,7 @@
       </c>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>31847</v>
       </c>
@@ -2643,7 +2952,7 @@
       </c>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>31847</v>
       </c>
@@ -2658,7 +2967,7 @@
       </c>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>31847</v>
       </c>
@@ -2673,7 +2982,7 @@
       </c>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>31847</v>
       </c>
@@ -2688,7 +2997,7 @@
       </c>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>31847</v>
       </c>
@@ -2703,7 +3012,7 @@
       </c>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>31847</v>
       </c>
@@ -2718,7 +3027,7 @@
       </c>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>31848</v>
       </c>
@@ -2733,7 +3042,7 @@
       </c>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>31848</v>
       </c>
@@ -2748,7 +3057,7 @@
       </c>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>31848</v>
       </c>
@@ -2763,7 +3072,7 @@
       </c>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>31848</v>
       </c>
@@ -2778,7 +3087,7 @@
       </c>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>31848</v>
       </c>
@@ -2793,7 +3102,7 @@
       </c>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>31849</v>
       </c>
@@ -2808,7 +3117,7 @@
       </c>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>31849</v>
       </c>
@@ -2823,7 +3132,7 @@
       </c>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>31849</v>
       </c>
@@ -2838,7 +3147,7 @@
       </c>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>31849</v>
       </c>
@@ -2853,7 +3162,7 @@
       </c>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>31849</v>
       </c>
@@ -2868,7 +3177,7 @@
       </c>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>31849</v>
       </c>
@@ -2883,7 +3192,7 @@
       </c>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>31849</v>
       </c>
@@ -2898,7 +3207,7 @@
       </c>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>31849</v>
       </c>
@@ -2913,7 +3222,7 @@
       </c>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>31849</v>
       </c>
@@ -2928,7 +3237,7 @@
       </c>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>31849</v>
       </c>
@@ -2943,7 +3252,7 @@
       </c>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>31849</v>
       </c>
@@ -2958,7 +3267,7 @@
       </c>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>31850</v>
       </c>
@@ -2973,7 +3282,7 @@
       </c>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>31850</v>
       </c>
@@ -2988,7 +3297,7 @@
       </c>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>31850</v>
       </c>
@@ -3003,7 +3312,7 @@
       </c>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>31850</v>
       </c>
@@ -3018,7 +3327,7 @@
       </c>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>31850</v>
       </c>
@@ -3033,7 +3342,7 @@
       </c>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>31850</v>
       </c>
@@ -3048,7 +3357,7 @@
       </c>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>31851</v>
       </c>
@@ -3063,7 +3372,7 @@
       </c>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>31851</v>
       </c>
@@ -3078,7 +3387,7 @@
       </c>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>31851</v>
       </c>
@@ -3093,7 +3402,7 @@
       </c>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>31851</v>
       </c>
@@ -3108,7 +3417,7 @@
       </c>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>31851</v>
       </c>
@@ -3123,7 +3432,7 @@
       </c>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>31851</v>
       </c>
@@ -3138,7 +3447,7 @@
       </c>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>31853</v>
       </c>
@@ -3153,7 +3462,7 @@
       </c>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>31853</v>
       </c>
@@ -3168,7 +3477,7 @@
       </c>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>31853</v>
       </c>
@@ -3183,7 +3492,7 @@
       </c>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>31853</v>
       </c>
@@ -3198,7 +3507,7 @@
       </c>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>31853</v>
       </c>
@@ -3213,7 +3522,7 @@
       </c>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>31855</v>
       </c>
@@ -3228,7 +3537,7 @@
       </c>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>31855</v>
       </c>
@@ -3243,7 +3552,7 @@
       </c>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>31855</v>
       </c>
@@ -3258,7 +3567,7 @@
       </c>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>31857</v>
       </c>
@@ -3273,7 +3582,7 @@
       </c>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>31857</v>
       </c>
@@ -3288,7 +3597,7 @@
       </c>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>31857</v>
       </c>
@@ -3303,7 +3612,7 @@
       </c>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>31857</v>
       </c>
@@ -3318,7 +3627,7 @@
       </c>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>31857</v>
       </c>
@@ -3333,7 +3642,7 @@
       </c>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>31857</v>
       </c>
@@ -3348,7 +3657,7 @@
       </c>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>31857</v>
       </c>
@@ -3363,7 +3672,7 @@
       </c>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>31857</v>
       </c>
@@ -3378,7 +3687,7 @@
       </c>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>31858</v>
       </c>
@@ -3393,7 +3702,7 @@
       </c>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>31858</v>
       </c>
@@ -3408,7 +3717,7 @@
       </c>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>31858</v>
       </c>
@@ -3423,7 +3732,7 @@
       </c>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>31858</v>
       </c>
@@ -3438,7 +3747,7 @@
       </c>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>31858</v>
       </c>
@@ -3453,7 +3762,7 @@
       </c>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>31858</v>
       </c>
@@ -3468,7 +3777,7 @@
       </c>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>31858</v>
       </c>
@@ -3483,7 +3792,7 @@
       </c>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>31858</v>
       </c>
@@ -3498,7 +3807,7 @@
       </c>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>31858</v>
       </c>
@@ -3513,7 +3822,7 @@
       </c>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>31858</v>
       </c>
@@ -3528,7 +3837,7 @@
       </c>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>31858</v>
       </c>
@@ -3543,7 +3852,7 @@
       </c>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>31858</v>
       </c>
@@ -3558,7 +3867,7 @@
       </c>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>31858</v>
       </c>
@@ -3573,7 +3882,7 @@
       </c>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>31858</v>
       </c>
@@ -3588,7 +3897,7 @@
       </c>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>31859</v>
       </c>
@@ -3603,7 +3912,7 @@
       </c>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>31859</v>
       </c>
@@ -3618,7 +3927,7 @@
       </c>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>31859</v>
       </c>
@@ -3633,7 +3942,7 @@
       </c>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>31859</v>
       </c>
@@ -3648,7 +3957,7 @@
       </c>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>31859</v>
       </c>
@@ -3663,7 +3972,7 @@
       </c>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>31859</v>
       </c>
@@ -3678,7 +3987,7 @@
       </c>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>31859</v>
       </c>
@@ -3693,7 +4002,7 @@
       </c>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>31859</v>
       </c>
@@ -3708,7 +4017,7 @@
       </c>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>31859</v>
       </c>
@@ -3723,7 +4032,7 @@
       </c>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>31859</v>
       </c>
@@ -3738,7 +4047,7 @@
       </c>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>31859</v>
       </c>
@@ -3753,7 +4062,7 @@
       </c>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>31859</v>
       </c>
@@ -3768,7 +4077,7 @@
       </c>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>31859</v>
       </c>
@@ -3783,7 +4092,7 @@
       </c>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>31859</v>
       </c>
@@ -3798,7 +4107,7 @@
       </c>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>31859</v>
       </c>
@@ -3813,7 +4122,7 @@
       </c>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>31859</v>
       </c>
@@ -3828,7 +4137,7 @@
       </c>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>31859</v>
       </c>
@@ -3843,7 +4152,7 @@
       </c>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>31859</v>
       </c>
@@ -3858,7 +4167,7 @@
       </c>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>31859</v>
       </c>
@@ -3873,7 +4182,7 @@
       </c>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>31859</v>
       </c>
@@ -3888,7 +4197,7 @@
       </c>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>31859</v>
       </c>
@@ -3903,7 +4212,7 @@
       </c>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>31859</v>
       </c>
@@ -3918,7 +4227,7 @@
       </c>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>31859</v>
       </c>
@@ -3933,7 +4242,7 @@
       </c>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>31859</v>
       </c>
@@ -3948,7 +4257,7 @@
       </c>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>31859</v>
       </c>
@@ -3963,7 +4272,7 @@
       </c>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>31859</v>
       </c>
@@ -3978,7 +4287,7 @@
       </c>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>31860</v>
       </c>
@@ -3993,7 +4302,7 @@
       </c>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>31860</v>
       </c>
@@ -4008,7 +4317,7 @@
       </c>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>31860</v>
       </c>
@@ -4023,7 +4332,7 @@
       </c>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>31860</v>
       </c>
@@ -4038,7 +4347,7 @@
       </c>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>31860</v>
       </c>
@@ -4053,7 +4362,7 @@
       </c>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>31860</v>
       </c>
@@ -4068,7 +4377,7 @@
       </c>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>31860</v>
       </c>
@@ -4083,7 +4392,7 @@
       </c>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>31860</v>
       </c>
@@ -4098,7 +4407,7 @@
       </c>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>31860</v>
       </c>
@@ -4113,7 +4422,7 @@
       </c>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>31860</v>
       </c>
@@ -4128,7 +4437,7 @@
       </c>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>31860</v>
       </c>
@@ -4143,7 +4452,7 @@
       </c>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>31860</v>
       </c>
@@ -4158,7 +4467,7 @@
       </c>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>31860</v>
       </c>
@@ -4173,7 +4482,7 @@
       </c>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>31860</v>
       </c>
@@ -4188,7 +4497,7 @@
       </c>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>31860</v>
       </c>
@@ -4203,7 +4512,7 @@
       </c>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>31860</v>
       </c>
@@ -4218,7 +4527,7 @@
       </c>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>31860</v>
       </c>
@@ -4233,7 +4542,7 @@
       </c>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>31860</v>
       </c>
@@ -4248,7 +4557,7 @@
       </c>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>31860</v>
       </c>
@@ -4263,7 +4572,7 @@
       </c>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>31860</v>
       </c>
@@ -4278,7 +4587,7 @@
       </c>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>31860</v>
       </c>
@@ -4293,7 +4602,7 @@
       </c>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>31863</v>
       </c>
@@ -4308,7 +4617,7 @@
       </c>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>31863</v>
       </c>
@@ -4323,7 +4632,7 @@
       </c>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>31863</v>
       </c>
@@ -4338,7 +4647,7 @@
       </c>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>31863</v>
       </c>
@@ -4353,7 +4662,7 @@
       </c>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>31863</v>
       </c>
@@ -4368,7 +4677,7 @@
       </c>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>31863</v>
       </c>
@@ -4383,7 +4692,7 @@
       </c>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>31863</v>
       </c>
@@ -4398,7 +4707,7 @@
       </c>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>31863</v>
       </c>
@@ -4413,7 +4722,7 @@
       </c>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>31863</v>
       </c>
@@ -4428,7 +4737,7 @@
       </c>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>31864</v>
       </c>
@@ -4443,7 +4752,7 @@
       </c>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>31864</v>
       </c>
@@ -4458,7 +4767,7 @@
       </c>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>31865</v>
       </c>
@@ -4473,7 +4782,7 @@
       </c>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>31865</v>
       </c>
@@ -4488,7 +4797,7 @@
       </c>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>31867</v>
       </c>
@@ -4503,7 +4812,7 @@
       </c>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>31868</v>
       </c>
@@ -4518,7 +4827,7 @@
       </c>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>31868</v>
       </c>
@@ -4533,7 +4842,7 @@
       </c>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>31868</v>
       </c>
@@ -4548,7 +4857,7 @@
       </c>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>31868</v>
       </c>
@@ -4563,7 +4872,7 @@
       </c>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>31869</v>
       </c>
@@ -4578,7 +4887,7 @@
       </c>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>31869</v>
       </c>
@@ -4593,7 +4902,7 @@
       </c>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>31869</v>
       </c>
@@ -4608,7 +4917,7 @@
       </c>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>31869</v>
       </c>
@@ -4623,7 +4932,7 @@
       </c>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>31869</v>
       </c>
@@ -4638,7 +4947,7 @@
       </c>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>31869</v>
       </c>
@@ -4653,7 +4962,7 @@
       </c>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>31869</v>
       </c>
@@ -4668,7 +4977,7 @@
       </c>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>31869</v>
       </c>
@@ -4683,7 +4992,7 @@
       </c>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>31869</v>
       </c>
@@ -4698,7 +5007,7 @@
       </c>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>31869</v>
       </c>
@@ -4713,7 +5022,7 @@
       </c>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>31869</v>
       </c>
@@ -4728,7 +5037,7 @@
       </c>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>31870</v>
       </c>
@@ -4743,7 +5052,7 @@
       </c>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>31870</v>
       </c>
@@ -4758,7 +5067,7 @@
       </c>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>31870</v>
       </c>
@@ -4773,7 +5082,7 @@
       </c>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>31875</v>
       </c>
@@ -4788,7 +5097,7 @@
       </c>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>31875</v>
       </c>
@@ -4803,7 +5112,7 @@
       </c>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>31875</v>
       </c>
@@ -4818,7 +5127,7 @@
       </c>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>31875</v>
       </c>
@@ -4833,7 +5142,7 @@
       </c>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>31875</v>
       </c>
@@ -4848,7 +5157,7 @@
       </c>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>31875</v>
       </c>
@@ -4863,7 +5172,7 @@
       </c>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>31875</v>
       </c>
@@ -4878,7 +5187,7 @@
       </c>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>31875</v>
       </c>
@@ -4893,7 +5202,7 @@
       </c>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>31875</v>
       </c>
@@ -4908,7 +5217,7 @@
       </c>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>31875</v>
       </c>
@@ -4923,7 +5232,7 @@
       </c>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>31875</v>
       </c>
@@ -4938,7 +5247,7 @@
       </c>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>31879</v>
       </c>
@@ -4953,7 +5262,7 @@
       </c>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>31879</v>
       </c>
@@ -4968,7 +5277,7 @@
       </c>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>31879</v>
       </c>
@@ -4983,7 +5292,7 @@
       </c>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>31879</v>
       </c>
@@ -4998,7 +5307,7 @@
       </c>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>31881</v>
       </c>
@@ -5013,7 +5322,7 @@
       </c>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>31881</v>
       </c>
@@ -5028,7 +5337,7 @@
       </c>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>31882</v>
       </c>
@@ -5043,7 +5352,7 @@
       </c>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>31882</v>
       </c>
@@ -5058,7 +5367,7 @@
       </c>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>31882</v>
       </c>
@@ -5073,7 +5382,7 @@
       </c>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>31883</v>
       </c>
@@ -5088,7 +5397,7 @@
       </c>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>31883</v>
       </c>
@@ -5103,7 +5412,7 @@
       </c>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>31883</v>
       </c>
@@ -5118,7 +5427,7 @@
       </c>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>31883</v>
       </c>
@@ -5133,7 +5442,7 @@
       </c>
       <c r="E244" s="1"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>31883</v>
       </c>
@@ -5148,7 +5457,7 @@
       </c>
       <c r="E245" s="1"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>31883</v>
       </c>
@@ -5163,7 +5472,7 @@
       </c>
       <c r="E246" s="1"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>31885</v>
       </c>
@@ -5178,7 +5487,7 @@
       </c>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>31885</v>
       </c>
@@ -5193,7 +5502,7 @@
       </c>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>31885</v>
       </c>
@@ -5208,7 +5517,7 @@
       </c>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>31885</v>
       </c>
@@ -5223,7 +5532,7 @@
       </c>
       <c r="E250" s="1"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>31885</v>
       </c>
@@ -5238,7 +5547,7 @@
       </c>
       <c r="E251" s="1"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>31885</v>
       </c>
@@ -5253,7 +5562,7 @@
       </c>
       <c r="E252" s="1"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>31885</v>
       </c>
@@ -5268,7 +5577,7 @@
       </c>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>31885</v>
       </c>
@@ -5283,7 +5592,7 @@
       </c>
       <c r="E254" s="1"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>31885</v>
       </c>
@@ -5298,7 +5607,7 @@
       </c>
       <c r="E255" s="1"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>31885</v>
       </c>
@@ -5313,7 +5622,7 @@
       </c>
       <c r="E256" s="1"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>31886</v>
       </c>
@@ -5328,7 +5637,7 @@
       </c>
       <c r="E257" s="1"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>31886</v>
       </c>
@@ -5343,7 +5652,7 @@
       </c>
       <c r="E258" s="1"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>31897</v>
       </c>
@@ -5358,7 +5667,7 @@
       </c>
       <c r="E259" s="1"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>31897</v>
       </c>
@@ -5373,7 +5682,7 @@
       </c>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>31901</v>
       </c>
@@ -5388,7 +5697,7 @@
       </c>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>31901</v>
       </c>
@@ -5403,7 +5712,7 @@
       </c>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>31901</v>
       </c>
@@ -5418,7 +5727,7 @@
       </c>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>31901</v>
       </c>
@@ -5433,7 +5742,7 @@
       </c>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>31901</v>
       </c>
@@ -5448,7 +5757,7 @@
       </c>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>31901</v>
       </c>
@@ -5463,7 +5772,7 @@
       </c>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>31901</v>
       </c>
@@ -5478,7 +5787,7 @@
       </c>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>31901</v>
       </c>
@@ -5493,7 +5802,7 @@
       </c>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>31901</v>
       </c>
@@ -5508,7 +5817,7 @@
       </c>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>31901</v>
       </c>
@@ -5523,7 +5832,7 @@
       </c>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>31901</v>
       </c>
@@ -5538,7 +5847,7 @@
       </c>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>31901</v>
       </c>
@@ -5553,7 +5862,7 @@
       </c>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>31901</v>
       </c>
@@ -5568,7 +5877,7 @@
       </c>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>31901</v>
       </c>
@@ -5583,7 +5892,7 @@
       </c>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>31901</v>
       </c>
@@ -5598,7 +5907,7 @@
       </c>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>31901</v>
       </c>
@@ -5613,7 +5922,7 @@
       </c>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>31901</v>
       </c>
@@ -5628,7 +5937,7 @@
       </c>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>31901</v>
       </c>
@@ -5643,7 +5952,7 @@
       </c>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>31901</v>
       </c>
@@ -5658,7 +5967,7 @@
       </c>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>31901</v>
       </c>
@@ -5673,7 +5982,7 @@
       </c>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>31901</v>
       </c>
@@ -5688,7 +5997,7 @@
       </c>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>31901</v>
       </c>
@@ -5703,7 +6012,7 @@
       </c>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>31901</v>
       </c>
@@ -5718,7 +6027,7 @@
       </c>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>31901</v>
       </c>
@@ -5733,7 +6042,7 @@
       </c>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>31901</v>
       </c>
@@ -5748,7 +6057,7 @@
       </c>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>31904</v>
       </c>
@@ -5763,7 +6072,7 @@
       </c>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>31904</v>
       </c>
@@ -5778,7 +6087,7 @@
       </c>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>31904</v>
       </c>
@@ -5793,7 +6102,7 @@
       </c>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>31904</v>
       </c>
@@ -5808,7 +6117,7 @@
       </c>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>31904</v>
       </c>
@@ -5823,7 +6132,7 @@
       </c>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>31904</v>
       </c>
@@ -5838,7 +6147,7 @@
       </c>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>31904</v>
       </c>
@@ -5853,7 +6162,7 @@
       </c>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>31904</v>
       </c>
@@ -5868,7 +6177,7 @@
       </c>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>31904</v>
       </c>
@@ -5883,7 +6192,7 @@
       </c>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>31904</v>
       </c>
@@ -5898,7 +6207,7 @@
       </c>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>31909</v>
       </c>
@@ -5913,7 +6222,7 @@
       </c>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>31909</v>
       </c>
@@ -5928,7 +6237,7 @@
       </c>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>31909</v>
       </c>
@@ -5943,7 +6252,7 @@
       </c>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>31909</v>
       </c>
@@ -5958,7 +6267,7 @@
       </c>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>31915</v>
       </c>
@@ -5973,7 +6282,7 @@
       </c>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>31915</v>
       </c>
@@ -5988,7 +6297,7 @@
       </c>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>31915</v>
       </c>
@@ -6003,7 +6312,7 @@
       </c>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>31915</v>
       </c>
@@ -6018,7 +6327,7 @@
       </c>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>31920</v>
       </c>
@@ -6033,7 +6342,7 @@
       </c>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>31920</v>
       </c>
@@ -6048,7 +6357,7 @@
       </c>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>31947</v>
       </c>
@@ -6063,7 +6372,7 @@
       </c>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>31947</v>
       </c>
@@ -6078,7 +6387,7 @@
       </c>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>31950</v>
       </c>
@@ -6093,7 +6402,7 @@
       </c>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>31950</v>
       </c>
@@ -6108,7 +6417,7 @@
       </c>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>31950</v>
       </c>
@@ -6123,7 +6432,7 @@
       </c>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>31953</v>
       </c>
@@ -6138,7 +6447,7 @@
       </c>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>31953</v>
       </c>
@@ -6153,7 +6462,7 @@
       </c>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>31953</v>
       </c>
@@ -6168,7 +6477,7 @@
       </c>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>31953</v>
       </c>
@@ -6183,7 +6492,7 @@
       </c>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>31953</v>
       </c>
@@ -6198,7 +6507,7 @@
       </c>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>31953</v>
       </c>
@@ -6213,7 +6522,7 @@
       </c>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <v>31958</v>
       </c>
@@ -6228,7 +6537,7 @@
       </c>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>31987</v>
       </c>
@@ -6243,7 +6552,7 @@
       </c>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>31987</v>
       </c>
@@ -6258,7 +6567,7 @@
       </c>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>31987</v>
       </c>
@@ -6273,7 +6582,7 @@
       </c>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>31987</v>
       </c>
@@ -6288,7 +6597,7 @@
       </c>
       <c r="E321" s="1"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>31987</v>
       </c>
@@ -6303,7 +6612,7 @@
       </c>
       <c r="E322" s="1"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>31987</v>
       </c>
@@ -6318,7 +6627,7 @@
       </c>
       <c r="E323" s="1"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>31987</v>
       </c>
@@ -6333,7 +6642,7 @@
       </c>
       <c r="E324" s="1"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>32016</v>
       </c>
@@ -6348,7 +6657,7 @@
       </c>
       <c r="E325" s="1"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>32016</v>
       </c>
@@ -6363,7 +6672,7 @@
       </c>
       <c r="E326" s="1"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>32054</v>
       </c>
@@ -6378,7 +6687,7 @@
       </c>
       <c r="E327" s="1"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>32054</v>
       </c>
@@ -6393,7 +6702,7 @@
       </c>
       <c r="E328" s="1"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>32054</v>
       </c>
@@ -6408,7 +6717,7 @@
       </c>
       <c r="E329" s="1"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>32096</v>
       </c>
@@ -6423,7 +6732,7 @@
       </c>
       <c r="E330" s="1"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>32096</v>
       </c>
@@ -6438,7 +6747,7 @@
       </c>
       <c r="E331" s="1"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>32096</v>
       </c>
@@ -6453,7 +6762,7 @@
       </c>
       <c r="E332" s="1"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>32096</v>
       </c>
@@ -6468,7 +6777,7 @@
       </c>
       <c r="E333" s="1"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>32096</v>
       </c>
@@ -6483,7 +6792,7 @@
       </c>
       <c r="E334" s="1"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>32096</v>
       </c>
@@ -6498,7 +6807,7 @@
       </c>
       <c r="E335" s="1"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>32096</v>
       </c>
@@ -6513,7 +6822,7 @@
       </c>
       <c r="E336" s="1"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>32096</v>
       </c>
@@ -6528,7 +6837,7 @@
       </c>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>32096</v>
       </c>
@@ -6543,7 +6852,7 @@
       </c>
       <c r="E338" s="1"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>32096</v>
       </c>
@@ -6558,7 +6867,7 @@
       </c>
       <c r="E339" s="1"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <v>32096</v>
       </c>
@@ -6573,7 +6882,7 @@
       </c>
       <c r="E340" s="1"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>32096</v>
       </c>
@@ -6588,7 +6897,7 @@
       </c>
       <c r="E341" s="1"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>32096</v>
       </c>
@@ -6603,7 +6912,7 @@
       </c>
       <c r="E342" s="1"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>32096</v>
       </c>
@@ -6618,7 +6927,7 @@
       </c>
       <c r="E343" s="1"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>32096</v>
       </c>
@@ -6633,7 +6942,7 @@
       </c>
       <c r="E344" s="1"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>32096</v>
       </c>
@@ -6648,7 +6957,7 @@
       </c>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>32096</v>
       </c>
@@ -6663,7 +6972,7 @@
       </c>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>32096</v>
       </c>
@@ -6678,7 +6987,7 @@
       </c>
       <c r="E347" s="1"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>32096</v>
       </c>
@@ -6693,7 +7002,7 @@
       </c>
       <c r="E348" s="1"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>32096</v>
       </c>
@@ -6708,7 +7017,7 @@
       </c>
       <c r="E349" s="1"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>32096</v>
       </c>
@@ -6723,7 +7032,7 @@
       </c>
       <c r="E350" s="1"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>32096</v>
       </c>
@@ -6738,7 +7047,7 @@
       </c>
       <c r="E351" s="1"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>32096</v>
       </c>
@@ -6753,7 +7062,7 @@
       </c>
       <c r="E352" s="1"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>32096</v>
       </c>
@@ -6768,7 +7077,7 @@
       </c>
       <c r="E353" s="1"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>32096</v>
       </c>
@@ -6783,7 +7092,7 @@
       </c>
       <c r="E354" s="1"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>32096</v>
       </c>
@@ -6798,7 +7107,7 @@
       </c>
       <c r="E355" s="1"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>32096</v>
       </c>
@@ -6813,7 +7122,7 @@
       </c>
       <c r="E356" s="1"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>32096</v>
       </c>
@@ -6828,7 +7137,7 @@
       </c>
       <c r="E357" s="1"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>32096</v>
       </c>
@@ -6843,7 +7152,7 @@
       </c>
       <c r="E358" s="1"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>32096</v>
       </c>
@@ -6858,7 +7167,7 @@
       </c>
       <c r="E359" s="1"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>32096</v>
       </c>
@@ -6873,7 +7182,7 @@
       </c>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>32120</v>
       </c>
@@ -6888,7 +7197,7 @@
       </c>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>32120</v>
       </c>
@@ -6903,7 +7212,7 @@
       </c>
       <c r="E362" s="1"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <v>32120</v>
       </c>
@@ -6918,7 +7227,7 @@
       </c>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <v>32120</v>
       </c>
@@ -6933,7 +7242,7 @@
       </c>
       <c r="E364" s="1"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>32137</v>
       </c>
@@ -6948,7 +7257,7 @@
       </c>
       <c r="E365" s="1"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>32137</v>
       </c>
@@ -6963,7 +7272,7 @@
       </c>
       <c r="E366" s="1"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <v>32137</v>
       </c>
@@ -6978,7 +7287,7 @@
       </c>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>32137</v>
       </c>
@@ -6993,7 +7302,7 @@
       </c>
       <c r="E368" s="1"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>32137</v>
       </c>
@@ -7008,7 +7317,7 @@
       </c>
       <c r="E369" s="1"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>32137</v>
       </c>
@@ -7023,7 +7332,7 @@
       </c>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>32137</v>
       </c>
@@ -7038,7 +7347,7 @@
       </c>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>32137</v>
       </c>
@@ -7053,7 +7362,7 @@
       </c>
       <c r="E372" s="1"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>32137</v>
       </c>
@@ -7068,7 +7377,7 @@
       </c>
       <c r="E373" s="1"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>32137</v>
       </c>
@@ -7083,7 +7392,7 @@
       </c>
       <c r="E374" s="1"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <v>32172</v>
       </c>
@@ -7098,7 +7407,7 @@
       </c>
       <c r="E375" s="1"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>32174</v>
       </c>
@@ -7113,7 +7422,7 @@
       </c>
       <c r="E376" s="1"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>32174</v>
       </c>
@@ -7128,7 +7437,7 @@
       </c>
       <c r="E377" s="1"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
         <v>32174</v>
       </c>
@@ -7143,7 +7452,7 @@
       </c>
       <c r="E378" s="1"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
         <v>32174</v>
       </c>
@@ -7158,7 +7467,7 @@
       </c>
       <c r="E379" s="1"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
         <v>32174</v>
       </c>
@@ -7173,7 +7482,7 @@
       </c>
       <c r="E380" s="1"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>32174</v>
       </c>
@@ -7188,7 +7497,7 @@
       </c>
       <c r="E381" s="1"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>32174</v>
       </c>
@@ -7203,7 +7512,7 @@
       </c>
       <c r="E382" s="1"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>32174</v>
       </c>
@@ -7218,7 +7527,7 @@
       </c>
       <c r="E383" s="1"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>32175</v>
       </c>
@@ -7233,7 +7542,7 @@
       </c>
       <c r="E384" s="1"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>32175</v>
       </c>
@@ -7248,7 +7557,7 @@
       </c>
       <c r="E385" s="1"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>32175</v>
       </c>
@@ -7263,7 +7572,7 @@
       </c>
       <c r="E386" s="1"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>32175</v>
       </c>
@@ -7278,7 +7587,7 @@
       </c>
       <c r="E387" s="1"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>32175</v>
       </c>
@@ -7293,7 +7602,7 @@
       </c>
       <c r="E388" s="1"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>32175</v>
       </c>
@@ -7308,7 +7617,7 @@
       </c>
       <c r="E389" s="1"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>32180</v>
       </c>
@@ -7323,7 +7632,7 @@
       </c>
       <c r="E390" s="1"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>32180</v>
       </c>
@@ -7338,7 +7647,7 @@
       </c>
       <c r="E391" s="1"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
         <v>32180</v>
       </c>
@@ -7353,7 +7662,7 @@
       </c>
       <c r="E392" s="1"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>32180</v>
       </c>
@@ -7368,7 +7677,7 @@
       </c>
       <c r="E393" s="1"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>32180</v>
       </c>
@@ -7383,7 +7692,7 @@
       </c>
       <c r="E394" s="1"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>32180</v>
       </c>
@@ -7398,7 +7707,7 @@
       </c>
       <c r="E395" s="1"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>32180</v>
       </c>
@@ -7413,7 +7722,7 @@
       </c>
       <c r="E396" s="1"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>32180</v>
       </c>
@@ -7428,7 +7737,7 @@
       </c>
       <c r="E397" s="1"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>32180</v>
       </c>
@@ -7443,7 +7752,7 @@
       </c>
       <c r="E398" s="1"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>32180</v>
       </c>
@@ -7458,7 +7767,7 @@
       </c>
       <c r="E399" s="1"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>32180</v>
       </c>
@@ -7473,7 +7782,7 @@
       </c>
       <c r="E400" s="1"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>32180</v>
       </c>
@@ -7488,7 +7797,7 @@
       </c>
       <c r="E401" s="1"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>32180</v>
       </c>
@@ -7503,7 +7812,7 @@
       </c>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>32180</v>
       </c>
@@ -7518,7 +7827,7 @@
       </c>
       <c r="E403" s="1"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>32180</v>
       </c>
@@ -7533,7 +7842,7 @@
       </c>
       <c r="E404" s="1"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>32203</v>
       </c>
@@ -7548,7 +7857,7 @@
       </c>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>32203</v>
       </c>
@@ -7563,7 +7872,7 @@
       </c>
       <c r="E406" s="1"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>32203</v>
       </c>
@@ -7578,7 +7887,7 @@
       </c>
       <c r="E407" s="1"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>32203</v>
       </c>
@@ -7593,7 +7902,7 @@
       </c>
       <c r="E408" s="1"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>32203</v>
       </c>
@@ -7608,7 +7917,7 @@
       </c>
       <c r="E409" s="1"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>32203</v>
       </c>
@@ -7623,7 +7932,7 @@
       </c>
       <c r="E410" s="1"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>32203</v>
       </c>
@@ -7638,7 +7947,7 @@
       </c>
       <c r="E411" s="1"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>32203</v>
       </c>
@@ -7653,7 +7962,7 @@
       </c>
       <c r="E412" s="1"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>32203</v>
       </c>
@@ -7668,7 +7977,7 @@
       </c>
       <c r="E413" s="1"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>32203</v>
       </c>
@@ -7683,7 +7992,7 @@
       </c>
       <c r="E414" s="1"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>32232</v>
       </c>
@@ -7698,7 +8007,7 @@
       </c>
       <c r="E415" s="1"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>32232</v>
       </c>
@@ -7713,7 +8022,7 @@
       </c>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>32232</v>
       </c>
@@ -7728,7 +8037,7 @@
       </c>
       <c r="E417" s="1"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
         <v>32232</v>
       </c>
@@ -7743,7 +8052,7 @@
       </c>
       <c r="E418" s="1"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>32232</v>
       </c>
@@ -7758,7 +8067,7 @@
       </c>
       <c r="E419" s="1"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>32233</v>
       </c>
@@ -7773,7 +8082,7 @@
       </c>
       <c r="E420" s="1"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>32233</v>
       </c>
@@ -7788,7 +8097,7 @@
       </c>
       <c r="E421" s="1"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>32233</v>
       </c>
@@ -7803,7 +8112,7 @@
       </c>
       <c r="E422" s="1"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>32233</v>
       </c>
@@ -7818,7 +8127,7 @@
       </c>
       <c r="E423" s="1"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>32233</v>
       </c>
@@ -7833,7 +8142,7 @@
       </c>
       <c r="E424" s="1"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>32233</v>
       </c>
@@ -7848,7 +8157,7 @@
       </c>
       <c r="E425" s="1"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>32233</v>
       </c>
@@ -7863,7 +8172,7 @@
       </c>
       <c r="E426" s="1"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>32233</v>
       </c>
@@ -7878,7 +8187,7 @@
       </c>
       <c r="E427" s="1"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>32233</v>
       </c>
@@ -7893,7 +8202,7 @@
       </c>
       <c r="E428" s="1"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>32233</v>
       </c>
@@ -7908,7 +8217,7 @@
       </c>
       <c r="E429" s="1"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>32233</v>
       </c>
@@ -7923,7 +8232,7 @@
       </c>
       <c r="E430" s="1"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>32233</v>
       </c>
@@ -7938,7 +8247,7 @@
       </c>
       <c r="E431" s="1"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>32233</v>
       </c>
@@ -7953,7 +8262,7 @@
       </c>
       <c r="E432" s="1"/>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>32233</v>
       </c>
@@ -7968,7 +8277,7 @@
       </c>
       <c r="E433" s="1"/>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>32233</v>
       </c>
@@ -7983,7 +8292,7 @@
       </c>
       <c r="E434" s="1"/>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>32233</v>
       </c>
@@ -7998,7 +8307,7 @@
       </c>
       <c r="E435" s="1"/>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>32233</v>
       </c>
@@ -8013,7 +8322,7 @@
       </c>
       <c r="E436" s="1"/>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>32233</v>
       </c>
@@ -8028,7 +8337,7 @@
       </c>
       <c r="E437" s="1"/>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>32233</v>
       </c>
@@ -8043,7 +8352,7 @@
       </c>
       <c r="E438" s="1"/>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>32233</v>
       </c>
@@ -8058,7 +8367,7 @@
       </c>
       <c r="E439" s="1"/>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>32233</v>
       </c>
@@ -8073,7 +8382,7 @@
       </c>
       <c r="E440" s="1"/>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>32233</v>
       </c>
@@ -8088,7 +8397,7 @@
       </c>
       <c r="E441" s="1"/>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>32233</v>
       </c>
@@ -8103,7 +8412,7 @@
       </c>
       <c r="E442" s="1"/>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>32233</v>
       </c>
@@ -8122,7 +8431,7 @@
       <c r="K443" s="4"/>
       <c r="L443" s="4"/>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>32233</v>
       </c>
@@ -8140,7 +8449,7 @@
       <c r="K444" s="4"/>
       <c r="L444" s="4"/>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>32233</v>
       </c>
@@ -8158,7 +8467,7 @@
       <c r="K445" s="4"/>
       <c r="L445" s="4"/>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>32233</v>
       </c>
@@ -8176,7 +8485,7 @@
       <c r="K446" s="4"/>
       <c r="L446" s="4"/>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>32233</v>
       </c>
@@ -8193,7 +8502,7 @@
       <c r="K447" s="4"/>
       <c r="L447" s="4"/>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>32233</v>
       </c>
@@ -8208,7 +8517,7 @@
       </c>
       <c r="E448" s="1"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>32233</v>
       </c>
@@ -8223,7 +8532,7 @@
       </c>
       <c r="E449" s="1"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>32233</v>
       </c>
@@ -8238,7 +8547,7 @@
       </c>
       <c r="E450" s="1"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>32265</v>
       </c>
@@ -8253,7 +8562,7 @@
       </c>
       <c r="E451" s="1"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>32269</v>
       </c>
@@ -8268,7 +8577,7 @@
       </c>
       <c r="E452" s="1"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>32276</v>
       </c>
@@ -8283,7 +8592,7 @@
       </c>
       <c r="E453" s="1"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>32276</v>
       </c>
@@ -8298,7 +8607,7 @@
       </c>
       <c r="E454" s="1"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>32276</v>
       </c>
@@ -8313,7 +8622,7 @@
       </c>
       <c r="E455" s="1"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>32276</v>
       </c>
@@ -8328,7 +8637,7 @@
       </c>
       <c r="E456" s="1"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>32276</v>
       </c>
@@ -8343,7 +8652,7 @@
       </c>
       <c r="E457" s="1"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>32276</v>
       </c>
@@ -8358,7 +8667,7 @@
       </c>
       <c r="E458" s="1"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>32283</v>
       </c>
@@ -8373,7 +8682,7 @@
       </c>
       <c r="E459" s="1"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>32283</v>
       </c>
@@ -8388,7 +8697,7 @@
       </c>
       <c r="E460" s="1"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>32283</v>
       </c>
@@ -8403,7 +8712,7 @@
       </c>
       <c r="E461" s="1"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>32283</v>
       </c>
@@ -8418,7 +8727,7 @@
       </c>
       <c r="E462" s="1"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>32283</v>
       </c>
@@ -8433,7 +8742,7 @@
       </c>
       <c r="E463" s="1"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>32283</v>
       </c>
@@ -8448,7 +8757,7 @@
       </c>
       <c r="E464" s="1"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>32283</v>
       </c>
@@ -8463,7 +8772,7 @@
       </c>
       <c r="E465" s="1"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>32283</v>
       </c>
@@ -8478,7 +8787,7 @@
       </c>
       <c r="E466" s="1"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>32283</v>
       </c>
@@ -8493,7 +8802,7 @@
       </c>
       <c r="E467" s="1"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>32283</v>
       </c>
@@ -8508,7 +8817,7 @@
       </c>
       <c r="E468" s="1"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>32283</v>
       </c>
@@ -8523,7 +8832,7 @@
       </c>
       <c r="E469" s="1"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>32283</v>
       </c>
@@ -8538,7 +8847,7 @@
       </c>
       <c r="E470" s="1"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>32288</v>
       </c>
@@ -8553,7 +8862,7 @@
       </c>
       <c r="E471" s="1"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>32288</v>
       </c>
@@ -8568,7 +8877,7 @@
       </c>
       <c r="E472" s="1"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>32288</v>
       </c>
@@ -8583,7 +8892,7 @@
       </c>
       <c r="E473" s="1"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="4">
         <v>32288</v>
       </c>
@@ -8598,7 +8907,7 @@
       </c>
       <c r="E474" s="1"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>32316</v>
       </c>
@@ -8613,7 +8922,7 @@
       </c>
       <c r="E475" s="1"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>32316</v>
       </c>
@@ -8628,7 +8937,7 @@
       </c>
       <c r="E476" s="1"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>32316</v>
       </c>
@@ -8643,7 +8952,7 @@
       </c>
       <c r="E477" s="1"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>32316</v>
       </c>
@@ -8658,7 +8967,7 @@
       </c>
       <c r="E478" s="1"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>32316</v>
       </c>
@@ -8673,7 +8982,7 @@
       </c>
       <c r="E479" s="1"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>32316</v>
       </c>
@@ -8688,7 +8997,7 @@
       </c>
       <c r="E480" s="1"/>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>32316</v>
       </c>
@@ -8703,7 +9012,7 @@
       </c>
       <c r="E481" s="1"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>32316</v>
       </c>
@@ -8718,7 +9027,7 @@
       </c>
       <c r="E482" s="1"/>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>32316</v>
       </c>
@@ -8733,7 +9042,7 @@
       </c>
       <c r="E483" s="1"/>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>32316</v>
       </c>
@@ -8748,7 +9057,7 @@
       </c>
       <c r="E484" s="1"/>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>32316</v>
       </c>
@@ -8763,7 +9072,7 @@
       </c>
       <c r="E485" s="1"/>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>32316</v>
       </c>
@@ -8778,7 +9087,7 @@
       </c>
       <c r="E486" s="1"/>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>32316</v>
       </c>
@@ -8793,7 +9102,7 @@
       </c>
       <c r="E487" s="1"/>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>32316</v>
       </c>
@@ -8808,7 +9117,7 @@
       </c>
       <c r="E488" s="1"/>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="4">
         <v>32316</v>
       </c>
@@ -8823,7 +9132,7 @@
       </c>
       <c r="E489" s="1"/>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>32316</v>
       </c>
@@ -8838,7 +9147,7 @@
       </c>
       <c r="E490" s="1"/>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>32316</v>
       </c>
@@ -8853,7 +9162,7 @@
       </c>
       <c r="E491" s="1"/>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>32316</v>
       </c>
@@ -8868,7 +9177,7 @@
       </c>
       <c r="E492" s="1"/>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>32316</v>
       </c>
@@ -8883,7 +9192,7 @@
       </c>
       <c r="E493" s="1"/>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>32316</v>
       </c>
@@ -8898,7 +9207,7 @@
       </c>
       <c r="E494" s="1"/>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>32316</v>
       </c>
@@ -8913,7 +9222,7 @@
       </c>
       <c r="E495" s="1"/>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>32316</v>
       </c>
@@ -8928,7 +9237,7 @@
       </c>
       <c r="E496" s="1"/>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>32316</v>
       </c>
@@ -8943,7 +9252,7 @@
       </c>
       <c r="E497" s="1"/>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>32316</v>
       </c>
@@ -8958,7 +9267,7 @@
       </c>
       <c r="E498" s="1"/>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>32316</v>
       </c>
@@ -8973,7 +9282,7 @@
       </c>
       <c r="E499" s="1"/>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>32317</v>
       </c>
@@ -8988,7 +9297,7 @@
       </c>
       <c r="E500" s="1"/>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="4">
         <v>32317</v>
       </c>
@@ -9003,7 +9312,7 @@
       </c>
       <c r="E501" s="1"/>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>32320</v>
       </c>
@@ -9018,7 +9327,7 @@
       </c>
       <c r="E502" s="1"/>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>43905</v>
       </c>
@@ -9032,7 +9341,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>43905</v>
       </c>
@@ -9046,7 +9355,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>43905</v>
       </c>
@@ -9060,7 +9369,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>43905</v>
       </c>
@@ -9087,6 +9396,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="05f91a1b-dc9e-4935-83bb-8b16b289603f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="031df1fd-70ca-41ea-9254-2ad0543794df" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8CAF755FF144545A9CBCE6353D30887" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f8c030694100494e8cc30fa55a203850">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="05f91a1b-dc9e-4935-83bb-8b16b289603f" xmlns:ns3="031df1fd-70ca-41ea-9254-2ad0543794df" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6efade011cad56c17b8043be03af071" ns2:_="" ns3:_="">
     <xsd:import namespace="05f91a1b-dc9e-4935-83bb-8b16b289603f"/>
@@ -9335,27 +9664,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{184B08E7-95EF-4D6A-B6F8-D1F73B045E70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="05f91a1b-dc9e-4935-83bb-8b16b289603f"/>
+    <ds:schemaRef ds:uri="031df1fd-70ca-41ea-9254-2ad0543794df"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="05f91a1b-dc9e-4935-83bb-8b16b289603f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="031df1fd-70ca-41ea-9254-2ad0543794df" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBB20062-DC03-4495-B1B0-2AB55752C90F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9D19073-1BE4-43DC-897A-8180F37090DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9372,23 +9700,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBB20062-DC03-4495-B1B0-2AB55752C90F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{184B08E7-95EF-4D6A-B6F8-D1F73B045E70}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="05f91a1b-dc9e-4935-83bb-8b16b289603f"/>
-    <ds:schemaRef ds:uri="031df1fd-70ca-41ea-9254-2ad0543794df"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>